--- a/biology/Zoologie/Garnettius_hungerfordi/Garnettius_hungerfordi.xlsx
+++ b/biology/Zoologie/Garnettius_hungerfordi/Garnettius_hungerfordi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garnettiidae, Garnettiius
 Garnettius hungerfordi, unique représentant du genre Garnettius et  de la famille des Garnettiidae, est une espèce fossile de scorpions.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte à Garnett dans le Kansas aux États-Unis. Elle date du Carbonifère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte à Garnett dans le Kansas aux États-Unis. Elle date du Carbonifère.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mazonia hungerfordi par Elias en 1936. Elle est placée dans le genre Garnettius par Petrunkevitch en 1953[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mazonia hungerfordi par Elias en 1936. Elle est placée dans le genre Garnettius par Petrunkevitch en 1953.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Churchill Hungerford[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Churchill Hungerford.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Elias, 1936 : « A new scorpion from the Pennsylvanian Walchia beds near Garnett, Kansas. » Journal of Paleontology, vol. 11, p. 335-336.
 Petrunkevitch, 1953 : « Paleozoic and Mesozoic Arachnida of Europe. » Memoirs of the Geological Society of America, vol. 53 p. 1-128 (en).
